--- a/data/trans_orig/IP26B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF0B5BD-30B9-4554-ADBB-419E0F0E4DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49681ECA-EE7F-44D1-AA0D-E6AE49B37F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C6DA66B-7FC8-412D-AEBB-2EDCF0C99A09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3C6DA7B-22EA-4E81-8DF6-8C0813BB6CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="809">
   <si>
     <t>Menores según su opinión sobre tomar el sol en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -95,28 +95,28 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>Peligroso</t>
@@ -125,2262 +125,2289 @@
     <t>20,7%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>Sano y peligroso</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Sano</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>Muy sano</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>Sano y peligroso</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>Sano</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>Muy sano</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Menores según su opinión sobre tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2012 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Menores según su opinión sobre tomar el sol en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
     <t>98,75%</t>
   </si>
   <si>
@@ -2412,9 +2439,6 @@
   </si>
   <si>
     <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -2853,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6B05A-4027-49E6-8186-9E696C2A16CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E2B789-3BC8-4482-ABA8-70CDE9B6D9BC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3408,7 +3432,7 @@
         <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3417,13 +3441,13 @@
         <v>10900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3462,13 @@
         <v>33259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -3453,13 +3477,13 @@
         <v>36994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
@@ -3468,13 +3492,13 @@
         <v>70253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3513,13 @@
         <v>84711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -3504,13 +3528,13 @@
         <v>65584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>228</v>
@@ -3519,13 +3543,13 @@
         <v>150294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3564,7 @@
         <v>3329</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>84</v>
@@ -3606,13 +3630,13 @@
         <v>4733</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3621,10 +3645,10 @@
         <v>6056</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>97</v>
@@ -3980,13 +4004,13 @@
         <v>7498</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4066,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4060,37 +4084,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4129,13 @@
         <v>9250</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -4120,13 +4144,13 @@
         <v>7803</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -4135,13 +4159,13 @@
         <v>17054</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4180,13 @@
         <v>40416</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>67</v>
@@ -4171,13 +4195,13 @@
         <v>40694</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>128</v>
@@ -4186,13 +4210,13 @@
         <v>81110</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4231,13 @@
         <v>75089</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>118</v>
@@ -4222,10 +4246,10 @@
         <v>70849</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>171</v>
@@ -4261,10 +4285,10 @@
         <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -4273,13 +4297,13 @@
         <v>14228</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -4288,13 +4312,13 @@
         <v>32678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4333,13 @@
         <v>5325</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -4324,13 +4348,13 @@
         <v>4243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -4339,13 +4363,13 @@
         <v>9568</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4425,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4419,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4434,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4464,13 +4488,13 @@
         <v>14881</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H33" s="7">
         <v>29</v>
@@ -4479,13 +4503,13 @@
         <v>22766</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M33" s="7">
         <v>51</v>
@@ -4494,13 +4518,13 @@
         <v>37648</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4539,13 @@
         <v>73924</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H34" s="7">
         <v>92</v>
@@ -4530,13 +4554,13 @@
         <v>70663</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>201</v>
@@ -4545,13 +4569,13 @@
         <v>144587</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4590,13 @@
         <v>100403</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>131</v>
@@ -4581,13 +4605,13 @@
         <v>99974</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>279</v>
@@ -4596,13 +4620,13 @@
         <v>200377</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4641,13 @@
         <v>11976</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4632,13 +4656,13 @@
         <v>10873</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -4647,13 +4671,13 @@
         <v>22849</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4692,13 @@
         <v>6640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4859,7 +4883,7 @@
         <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4898,13 @@
         <v>225754</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H41" s="7">
         <v>335</v>
@@ -4889,13 +4913,13 @@
         <v>225502</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
         <v>673</v>
@@ -4904,13 +4928,13 @@
         <v>451255</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4949,13 @@
         <v>371442</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H42" s="7">
         <v>516</v>
@@ -4940,13 +4964,13 @@
         <v>343591</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M42" s="7">
         <v>1076</v>
@@ -4955,13 +4979,13 @@
         <v>715033</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5000,13 @@
         <v>48397</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -4991,13 +5015,13 @@
         <v>43095</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>142</v>
@@ -5006,13 +5030,13 @@
         <v>91493</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5051,13 @@
         <v>20133</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>21</v>
@@ -5042,13 +5066,13 @@
         <v>14006</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -5057,13 +5081,13 @@
         <v>34139</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5143,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E02FF-4A6A-4B47-82D6-E3F78FD46A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBE027D-14A1-4800-85F4-F069B68CF747}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5157,7 +5181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5270,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5285,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5300,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5339,13 @@
         <v>1553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5330,13 +5354,13 @@
         <v>669</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5345,13 +5369,13 @@
         <v>2222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5390,13 @@
         <v>5566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5381,13 +5405,13 @@
         <v>4201</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -5396,13 +5420,13 @@
         <v>9767</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5441,13 @@
         <v>13699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -5432,13 +5456,13 @@
         <v>15891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -5447,13 +5471,13 @@
         <v>29591</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5492,13 @@
         <v>3558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5483,13 +5507,13 @@
         <v>923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5498,13 +5522,13 @@
         <v>4482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5543,13 @@
         <v>1078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5534,13 +5558,13 @@
         <v>688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -5549,13 +5573,13 @@
         <v>1766</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5644,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5659,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5698,13 @@
         <v>6882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5689,13 +5713,13 @@
         <v>6583</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -5704,13 +5728,13 @@
         <v>13464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5749,13 @@
         <v>24166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -5740,13 +5764,13 @@
         <v>20587</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -5755,13 +5779,13 @@
         <v>44753</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5800,13 @@
         <v>70655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -5791,13 +5815,13 @@
         <v>73282</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -5806,13 +5830,13 @@
         <v>143936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5851,13 @@
         <v>20298</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -5842,13 +5866,13 @@
         <v>11165</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M15" s="7">
         <v>45</v>
@@ -5857,13 +5881,13 @@
         <v>31463</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5902,13 @@
         <v>5349</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5893,13 +5917,13 @@
         <v>4684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5908,13 +5932,13 @@
         <v>10033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6057,13 @@
         <v>20023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -6048,13 +6072,13 @@
         <v>12223</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -6063,13 +6087,13 @@
         <v>32246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6108,13 @@
         <v>35462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -6099,13 +6123,13 @@
         <v>41006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>118</v>
@@ -6114,13 +6138,13 @@
         <v>76468</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6159,13 @@
         <v>131805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H21" s="7">
         <v>183</v>
@@ -6150,13 +6174,13 @@
         <v>119479</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M21" s="7">
         <v>372</v>
@@ -6165,13 +6189,13 @@
         <v>251284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6210,13 @@
         <v>25265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6201,13 +6225,13 @@
         <v>27617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>77</v>
@@ -6216,13 +6240,13 @@
         <v>52882</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6261,13 @@
         <v>8634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6252,13 +6276,13 @@
         <v>4729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>84</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -6267,13 +6291,13 @@
         <v>13363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,7 +6353,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6347,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6362,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6377,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6416,13 @@
         <v>11241</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6407,13 +6431,13 @@
         <v>11739</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -6422,13 +6446,13 @@
         <v>22980</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6467,13 @@
         <v>21116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H27" s="7">
         <v>34</v>
@@ -6458,13 +6482,13 @@
         <v>21843</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M27" s="7">
         <v>68</v>
@@ -6473,13 +6497,13 @@
         <v>42959</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6518,13 @@
         <v>107871</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>150</v>
@@ -6509,13 +6533,13 @@
         <v>96296</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>317</v>
@@ -6524,13 +6548,13 @@
         <v>204167</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6569,13 @@
         <v>22298</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -6560,13 +6584,13 @@
         <v>22772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -6575,13 +6599,13 @@
         <v>45070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6620,13 @@
         <v>4066</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -6611,13 +6635,13 @@
         <v>2098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -6626,13 +6650,13 @@
         <v>6164</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,7 +6712,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6706,7 +6730,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6721,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6736,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6775,13 @@
         <v>10485</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H33" s="7">
         <v>21</v>
@@ -6766,13 +6790,13 @@
         <v>15400</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M33" s="7">
         <v>35</v>
@@ -6781,13 +6805,13 @@
         <v>25886</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>466</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6826,13 @@
         <v>25183</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
@@ -6817,13 +6841,13 @@
         <v>20798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>462</v>
+        <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -6832,13 +6856,13 @@
         <v>45981</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6877,13 @@
         <v>140177</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H35" s="7">
         <v>175</v>
@@ -6868,13 +6892,13 @@
         <v>134102</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M35" s="7">
         <v>365</v>
@@ -6883,13 +6907,13 @@
         <v>274279</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6928,13 @@
         <v>24042</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>393</v>
+        <v>485</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -6919,13 +6943,13 @@
         <v>36187</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>80</v>
@@ -6934,13 +6958,13 @@
         <v>60230</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>484</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6979,13 @@
         <v>7731</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6970,13 +6994,13 @@
         <v>3079</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>370</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -6985,13 +7009,13 @@
         <v>10809</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>326</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7134,13 @@
         <v>50183</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H40" s="7">
         <v>71</v>
@@ -7125,13 +7149,13 @@
         <v>46615</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M40" s="7">
         <v>144</v>
@@ -7140,13 +7164,13 @@
         <v>96798</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>249</v>
+        <v>505</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>248</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7185,13 @@
         <v>111493</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="H41" s="7">
         <v>161</v>
@@ -7176,13 +7200,13 @@
         <v>108435</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="M41" s="7">
         <v>322</v>
@@ -7191,13 +7215,13 @@
         <v>219928</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7236,13 @@
         <v>464208</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="H42" s="7">
         <v>626</v>
@@ -7227,13 +7251,13 @@
         <v>439050</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="M42" s="7">
         <v>1286</v>
@@ -7242,13 +7266,13 @@
         <v>903258</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7287,13 @@
         <v>95462</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>516</v>
+        <v>199</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H43" s="7">
         <v>140</v>
@@ -7278,13 +7302,13 @@
         <v>98665</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="M43" s="7">
         <v>275</v>
@@ -7293,13 +7317,13 @@
         <v>194127</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7338,13 @@
         <v>26857</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -7329,13 +7353,13 @@
         <v>15279</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>526</v>
+        <v>404</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>230</v>
+        <v>532</v>
       </c>
       <c r="M44" s="7">
         <v>60</v>
@@ -7344,13 +7368,13 @@
         <v>42136</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,7 +7430,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7427,7 +7451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A23A3-1487-4A3C-A1E0-38603E1B0BF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61883616-43E5-4081-8D4A-3075C36354B6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7444,7 +7468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7557,7 +7581,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7572,7 +7596,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7587,7 +7611,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7626,13 @@
         <v>2518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7617,13 +7641,13 @@
         <v>570</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7632,13 +7656,13 @@
         <v>3088</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7677,13 @@
         <v>8826</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7668,13 +7692,13 @@
         <v>5933</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -7683,13 +7707,13 @@
         <v>14759</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7728,13 @@
         <v>7281</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -7719,13 +7743,13 @@
         <v>8581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>552</v>
+        <v>427</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -7734,13 +7758,13 @@
         <v>15862</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7779,13 @@
         <v>5736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7770,13 +7794,13 @@
         <v>6639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7785,13 +7809,13 @@
         <v>12375</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,13 +7830,13 @@
         <v>1214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>566</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7821,13 +7845,13 @@
         <v>804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -7836,13 +7860,13 @@
         <v>2017</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>577</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7940,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7931,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7946,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7985,13 @@
         <v>11026</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -7976,13 +8000,13 @@
         <v>6589</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -7991,13 +8015,13 @@
         <v>17614</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>587</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,13 +8036,13 @@
         <v>33493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -8027,13 +8051,13 @@
         <v>33875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>587</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -8042,13 +8066,13 @@
         <v>67368</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,13 +8087,13 @@
         <v>52313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -8078,13 +8102,13 @@
         <v>48968</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -8093,13 +8117,13 @@
         <v>101281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8138,13 @@
         <v>22873</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -8129,13 +8153,13 @@
         <v>15222</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>611</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -8144,13 +8168,13 @@
         <v>38095</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>606</v>
+        <v>525</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8189,13 @@
         <v>2798</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -8180,13 +8204,13 @@
         <v>5224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>566</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -8195,13 +8219,13 @@
         <v>8022</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8290,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8305,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,13 +8344,13 @@
         <v>27593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>626</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -8335,13 +8359,13 @@
         <v>28661</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>621</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -8350,13 +8374,13 @@
         <v>56254</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,13 +8395,13 @@
         <v>65526</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -8386,13 +8410,13 @@
         <v>62692</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -8401,13 +8425,13 @@
         <v>128218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>633</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8422,13 +8446,13 @@
         <v>98566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="H21" s="7">
         <v>147</v>
@@ -8437,13 +8461,13 @@
         <v>90361</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -8452,13 +8476,13 @@
         <v>188927</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8473,13 +8497,13 @@
         <v>25476</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -8488,13 +8512,13 @@
         <v>20877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>647</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>653</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -8503,13 +8527,13 @@
         <v>46352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>654</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,13 +8548,13 @@
         <v>6608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>649</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -8539,13 +8563,13 @@
         <v>4052</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>659</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -8554,13 +8578,13 @@
         <v>10660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>650</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8616,7 +8640,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8634,7 +8658,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8649,7 +8673,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>652</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8664,7 +8688,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,13 +8703,13 @@
         <v>4581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -8694,13 +8718,13 @@
         <v>5643</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>669</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -8709,13 +8733,13 @@
         <v>10224</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8730,13 +8754,13 @@
         <v>28485</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>666</v>
+        <v>297</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -8745,13 +8769,13 @@
         <v>31368</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="M27" s="7">
         <v>97</v>
@@ -8760,13 +8784,13 @@
         <v>59854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8781,13 +8805,13 @@
         <v>94256</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="H28" s="7">
         <v>148</v>
@@ -8796,13 +8820,13 @@
         <v>87793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="M28" s="7">
         <v>288</v>
@@ -8811,13 +8835,13 @@
         <v>182049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8832,13 +8856,13 @@
         <v>37522</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -8847,13 +8871,13 @@
         <v>27963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -8862,13 +8886,13 @@
         <v>65485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,10 +8910,10 @@
         <v>55</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -8898,13 +8922,13 @@
         <v>2142</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>527</v>
+        <v>296</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -8913,13 +8937,13 @@
         <v>3970</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>696</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8975,7 +8999,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8993,7 +9017,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9008,7 +9032,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9023,7 +9047,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9038,13 +9062,13 @@
         <v>6208</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>292</v>
+        <v>707</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -9053,13 +9077,13 @@
         <v>9288</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -9068,10 +9092,10 @@
         <v>15495</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>228</v>
+        <v>712</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>13</v>
@@ -9089,13 +9113,13 @@
         <v>38471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="H34" s="7">
         <v>54</v>
@@ -9104,13 +9128,13 @@
         <v>39862</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="M34" s="7">
         <v>110</v>
@@ -9119,13 +9143,13 @@
         <v>78334</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,13 +9164,13 @@
         <v>109880</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="H35" s="7">
         <v>143</v>
@@ -9155,13 +9179,13 @@
         <v>106528</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="M35" s="7">
         <v>298</v>
@@ -9170,13 +9194,13 @@
         <v>216407</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9215,13 @@
         <v>45314</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>176</v>
+        <v>733</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="H36" s="7">
         <v>60</v>
@@ -9206,13 +9230,13 @@
         <v>43957</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>725</v>
+        <v>322</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="M36" s="7">
         <v>123</v>
@@ -9221,13 +9245,13 @@
         <v>89271</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>728</v>
+        <v>679</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9266,13 @@
         <v>5172</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>731</v>
+        <v>91</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -9257,13 +9281,13 @@
         <v>6389</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>278</v>
+        <v>740</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -9272,13 +9296,13 @@
         <v>11561</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>139</v>
+        <v>545</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9397,13 +9421,13 @@
         <v>51925</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>497</v>
+        <v>133</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="H40" s="7">
         <v>80</v>
@@ -9412,13 +9436,13 @@
         <v>50751</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>60</v>
+        <v>747</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="M40" s="7">
         <v>156</v>
@@ -9427,13 +9451,13 @@
         <v>102676</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>493</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9448,13 +9472,13 @@
         <v>174802</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="H41" s="7">
         <v>263</v>
@@ -9463,13 +9487,13 @@
         <v>173730</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="M41" s="7">
         <v>515</v>
@@ -9478,13 +9502,13 @@
         <v>348532</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>557</v>
+        <v>758</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9499,13 +9523,13 @@
         <v>362296</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H42" s="7">
         <v>518</v>
@@ -9514,13 +9538,13 @@
         <v>342231</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>752</v>
+        <v>261</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="M42" s="7">
         <v>1038</v>
@@ -9529,13 +9553,13 @@
         <v>704526</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9550,13 +9574,13 @@
         <v>136919</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>711</v>
+        <v>769</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H43" s="7">
         <v>166</v>
@@ -9565,13 +9589,13 @@
         <v>114658</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="M43" s="7">
         <v>356</v>
@@ -9580,13 +9604,13 @@
         <v>251578</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9601,13 +9625,13 @@
         <v>17620</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>768</v>
+        <v>21</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -9616,13 +9640,13 @@
         <v>18611</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>771</v>
+        <v>414</v>
       </c>
       <c r="M44" s="7">
         <v>51</v>
@@ -9631,13 +9655,13 @@
         <v>36231</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>772</v>
+        <v>369</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>663</v>
+        <v>781</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>773</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9693,7 +9717,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -9714,7 +9738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CB72C5-05BD-4CC4-9105-A6908C484FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135465D2-DBF0-470C-8E88-5BD2E1E1E0D2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9731,7 +9755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9838,10 +9862,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>52</v>
@@ -9853,10 +9877,10 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>52</v>
@@ -9868,10 +9892,10 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>52</v>
@@ -9895,7 +9919,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9910,7 +9934,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9925,7 +9949,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9946,7 +9970,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9961,7 +9985,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9976,7 +10000,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9997,7 +10021,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10012,7 +10036,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -10027,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10048,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10063,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -10078,7 +10102,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10099,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10114,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -10129,7 +10153,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,10 +10221,10 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>52</v>
@@ -10212,10 +10236,10 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>52</v>
@@ -10227,10 +10251,10 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>52</v>
@@ -10254,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10305,7 +10329,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10356,7 +10380,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10407,7 +10431,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10458,7 +10482,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10556,10 +10580,10 @@
         <v>250186</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>52</v>
@@ -10571,10 +10595,10 @@
         <v>192352</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>52</v>
@@ -10586,10 +10610,10 @@
         <v>442538</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>52</v>
@@ -10613,7 +10637,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10628,7 +10652,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10643,7 +10667,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10664,7 +10688,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10679,7 +10703,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -10694,7 +10718,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10715,7 +10739,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10730,7 +10754,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -10745,7 +10769,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10766,7 +10790,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10781,7 +10805,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10796,7 +10820,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10817,7 +10841,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10832,7 +10856,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10847,7 +10871,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10903,7 +10927,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -10915,10 +10939,10 @@
         <v>173208</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>52</v>
@@ -10930,10 +10954,10 @@
         <v>168735</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>52</v>
@@ -10945,10 +10969,10 @@
         <v>341943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>52</v>
@@ -10972,7 +10996,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10987,7 +11011,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11002,7 +11026,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11023,7 +11047,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -11038,7 +11062,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -11053,7 +11077,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11074,7 +11098,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -11089,7 +11113,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -11104,7 +11128,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11125,7 +11149,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -11140,7 +11164,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -11155,7 +11179,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11176,7 +11200,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -11191,7 +11215,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -11206,7 +11230,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11262,7 +11286,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -11274,10 +11298,10 @@
         <v>175016</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>52</v>
@@ -11289,10 +11313,10 @@
         <v>171943</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>52</v>
@@ -11304,10 +11328,10 @@
         <v>346958</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>52</v>
@@ -11331,7 +11355,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -11346,7 +11370,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -11361,7 +11385,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11382,7 +11406,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -11397,7 +11421,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11412,7 +11436,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11433,7 +11457,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -11448,7 +11472,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -11463,7 +11487,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11484,7 +11508,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11499,7 +11523,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -11514,7 +11538,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11535,7 +11559,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11550,7 +11574,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -11565,7 +11589,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11633,10 +11657,10 @@
         <v>725704</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>52</v>
@@ -11648,10 +11672,10 @@
         <v>653712</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>52</v>
@@ -11663,10 +11687,10 @@
         <v>1379416</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -11690,7 +11714,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -11705,7 +11729,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -11720,7 +11744,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11741,7 +11765,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -11756,7 +11780,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -11771,7 +11795,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11792,7 +11816,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -11807,7 +11831,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11822,7 +11846,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11843,7 +11867,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11858,7 +11882,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11873,7 +11897,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11894,7 +11918,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -11909,7 +11933,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11924,7 +11948,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11980,7 +12004,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
